--- a/9/1/1/4/Mensual 2009 a 2021 - Trimestral.xlsx
+++ b/9/1/1/4/Mensual 2009 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Serie</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>II-2021</t>
+  </si>
+  <si>
+    <t>III-2021</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1556,10 +1559,10 @@
         <v>8026.22</v>
       </c>
       <c r="C45">
-        <v>234.57</v>
+        <v>233.68</v>
       </c>
       <c r="D45">
-        <v>1588.14</v>
+        <v>1589.03</v>
       </c>
       <c r="E45">
         <v>5927.28</v>
@@ -1615,6 +1618,29 @@
       </c>
       <c r="G47">
         <v>62.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>8345.24</v>
+      </c>
+      <c r="C48">
+        <v>254.08</v>
+      </c>
+      <c r="D48">
+        <v>1791.54</v>
+      </c>
+      <c r="E48">
+        <v>6028.97</v>
+      </c>
+      <c r="F48">
+        <v>212.04</v>
+      </c>
+      <c r="G48">
+        <v>58.61</v>
       </c>
     </row>
   </sheetData>
